--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568509.2907496758</v>
+        <v>565807.6428471407</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>61.57494829067511</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.71987512790838</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>130.4949840230014</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>203.2662833005395</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>179.5077514650769</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>146.33478092993</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>109.7553383425719</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.9632582378651</v>
       </c>
       <c r="X7" t="n">
-        <v>212.8172950218913</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.9723742688925</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163651</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731853</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>18.87931936510005</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436609</v>
+        <v>94.29488917436606</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433998</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282952</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>137.1789700647269</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>107.3759827033869</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>101.7017203050588</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>200.5796577563653</v>
       </c>
       <c r="U10" t="n">
-        <v>174.9590669246631</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374233</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>157.0764805573606</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.56577679223661</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474039</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>95.21019414968995</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.6255456814134</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.1686991936217</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238255</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7778550769786</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>34.21058558914848</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833681</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>174.1401868743386</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337056</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>36.86080948087705</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471654</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.458642397731778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>104.8913819999783</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936187</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>211.691700228452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>60.32297266393809</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G46" t="n">
-        <v>98.00068573248029</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062752</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062752</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062752</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062752</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>393.3574536167093</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>583.26140202276</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>583.26140202276</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X2" t="n">
-        <v>583.26140202276</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.8416170062752</v>
+        <v>589.7227393823975</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122421</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4416,43 +4416,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487949</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487949</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323101</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4507,31 +4507,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.720654864719</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.720654864719</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.454956257969</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="E5" t="n">
-        <v>647.6667036597246</v>
+        <v>339.6324538322843</v>
       </c>
       <c r="F5" t="n">
-        <v>640.7212029105211</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G5" t="n">
-        <v>224.6901576139284</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904653</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1778.320494928841</v>
+        <v>725.4207064305285</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.4702325826747</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C6" t="n">
-        <v>486.0172033015477</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1627.262386835205</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1392.110278603462</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>1244.29736857323</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.445868367697</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>828.6855696027428</v>
+        <v>364.3567837923351</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>282.4994618828749</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.306274065934</v>
+        <v>739.187982925538</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.306274065934</v>
+        <v>370.2254659851263</v>
       </c>
       <c r="D8" t="n">
-        <v>1178.306274065934</v>
+        <v>370.2254659851263</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.306274065934</v>
+        <v>370.2254659851263</v>
       </c>
       <c r="F8" t="n">
-        <v>767.3203692763268</v>
+        <v>363.2799652359228</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3295769022035</v>
+        <v>351.3295769022036</v>
       </c>
       <c r="H8" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420289</v>
+        <v>156.8280559420298</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002226</v>
+        <v>376.1555054002242</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707912</v>
+        <v>685.1523625707935</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937546</v>
+        <v>1060.640340937549</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733703</v>
+        <v>1446.817915733708</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659504</v>
+        <v>1798.13918765951</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284328</v>
+        <v>2063.482764284334</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.57199322851</v>
+        <v>2214.571993228516</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970525</v>
+        <v>2217.050212970531</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179428</v>
+        <v>2085.832821179435</v>
       </c>
       <c r="T8" t="n">
-        <v>2085.832821179428</v>
+        <v>2085.832821179435</v>
       </c>
       <c r="U8" t="n">
-        <v>2085.832821179428</v>
+        <v>1832.228877075742</v>
       </c>
       <c r="V8" t="n">
-        <v>2085.832821179428</v>
+        <v>1501.165989732171</v>
       </c>
       <c r="W8" t="n">
-        <v>1733.064165909314</v>
+        <v>1148.397334462057</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.064165909314</v>
+        <v>1129.32731490135</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.924833933502</v>
+        <v>739.187982925538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5268819840156</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0738527028886</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1394430416374</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019880361819</v>
+        <v>286.1229250349156</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904268</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803674</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="I9" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113468</v>
+        <v>92.51967467113516</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154153</v>
+        <v>253.0195209154164</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572527</v>
+        <v>515.1539122572545</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449714</v>
+        <v>840.4092510449742</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738682</v>
+        <v>1188.681775738686</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.06330007421</v>
+        <v>1485.063300074214</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566939</v>
+        <v>1703.602536566944</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257636</v>
+        <v>1799.771032257641</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257636</v>
+        <v>1769.119480285086</v>
       </c>
       <c r="S9" t="n">
-        <v>1661.206416030639</v>
+        <v>1630.554864058089</v>
       </c>
       <c r="T9" t="n">
-        <v>1661.206416030639</v>
+        <v>1435.931352611241</v>
       </c>
       <c r="U9" t="n">
-        <v>1552.745827441359</v>
+        <v>1207.831179666363</v>
       </c>
       <c r="V9" t="n">
-        <v>1317.593719209616</v>
+        <v>972.6790714346207</v>
       </c>
       <c r="W9" t="n">
-        <v>1317.593719209616</v>
+        <v>869.9500610254704</v>
       </c>
       <c r="X9" t="n">
-        <v>1109.742219004084</v>
+        <v>662.0985608199376</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.742219004084</v>
+        <v>454.3382620549837</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="C10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="D10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="E10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4557775891287</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="G10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="J10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016703</v>
+        <v>95.74470838016748</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810353</v>
+        <v>191.4295496810362</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422648</v>
+        <v>295.5740818422661</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091231</v>
+        <v>405.0998157091249</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712708</v>
+        <v>485.9514692712731</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.072055313974</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.072055313974</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.072055313974</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.072055313974</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139714</v>
+        <v>333.4663404085546</v>
       </c>
       <c r="U10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="V10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="W10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="X10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.345725087039</v>
+        <v>44.34100425941063</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1657.890104803039</v>
+        <v>1485.490329133577</v>
       </c>
       <c r="C11" t="n">
-        <v>1288.927587862627</v>
+        <v>1485.490329133577</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1127.224630526826</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>741.4363779285823</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>741.4363779285821</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592067</v>
+        <v>326.8206133697277</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592067</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656955</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796041</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345375</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926739</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048268</v>
+        <v>3319.526802048275</v>
       </c>
       <c r="V11" t="n">
-        <v>3160.863690374166</v>
+        <v>2988.463914704704</v>
       </c>
       <c r="W11" t="n">
-        <v>2808.095035104052</v>
+        <v>2635.69525943459</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.629276842972</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>2044.48994486716</v>
+        <v>1872.090169197699</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390847</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626167</v>
+        <v>488.5008422034045</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>996.4574081599334</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193668</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
         <v>2356.438638438442</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>925.516358754737</v>
+        <v>365.760805558377</v>
       </c>
       <c r="C13" t="n">
-        <v>925.516358754737</v>
+        <v>196.8246226304701</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.169024664815</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344817</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.208595376941</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336949</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893319</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.051798687432</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1393.051798687432</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>1165.062247789415</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.269668645885</v>
+        <v>365.760805558377</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,7 +5303,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537123</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5768,31 +5768,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.500769464734</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851784</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814783016</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038403</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797805</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235171</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235171</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579369</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373482</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438504</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949738</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>527.77225215726</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449243</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>377.6556127449243</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561824</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282755</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282755</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.98648192797</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299523</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864222</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832659</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.3159148556</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759939</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.991564824961</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,25 +6719,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>961.4835393015906</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>740.6909601580604</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400713</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142534</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,10 +7117,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
         <v>1977.461080510508</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.232545256807</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1694.157318601005</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434707</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155638</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032281</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830886</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851782</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.41557511724</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.62299597371</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6057892068301</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>416.6057892068302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797744</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>67.3340074019514</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>170.6757779127743</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.2662033897007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4052788685224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185688</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>143.6212754172144</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294749</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.468966021649212</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294975</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>111.2104624337828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459444</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>43.26526345294965</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823167</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>249.3236649083671</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187175</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.126010954363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43.72409101823407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909865011</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.713750098836215</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11098998263108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G46" t="n">
-        <v>67.52345255978855</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>929765.2665382784</v>
+        <v>929765.2665382792</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371979</v>
+        <v>366294.6221371983</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="I2" t="n">
         <v>403573.2998450032</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="K2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="J2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="L2" t="n">
-        <v>403573.299845003</v>
-      </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264098</v>
+        <v>12262.85603264297</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.956767451</v>
+        <v>395943.9567674506</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704293</v>
+        <v>189308.2687704278</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487746</v>
+        <v>91259.95686487782</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949388</v>
+        <v>3074.447349949823</v>
       </c>
       <c r="M3" t="n">
         <v>103409.2608931121</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320238</v>
+        <v>49839.5741320233</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607424</v>
+        <v>170817.8827607419</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
@@ -26430,22 +26430,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186735</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26457,7 +26457,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404155</v>
+        <v>86153.7544440417</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738576</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-516358.3828344471</v>
+        <v>-516358.3828344472</v>
       </c>
       <c r="C6" t="n">
-        <v>-241391.4312988059</v>
+        <v>-241391.4312988061</v>
       </c>
       <c r="D6" t="n">
-        <v>141286.3916947169</v>
+        <v>141286.3916947154</v>
       </c>
       <c r="E6" t="n">
-        <v>-129508.0971798595</v>
+        <v>-129729.2284938335</v>
       </c>
       <c r="F6" t="n">
-        <v>98315.80520879921</v>
+        <v>98281.06728336499</v>
       </c>
       <c r="G6" t="n">
-        <v>287624.0739792284</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="H6" t="n">
-        <v>287624.0739792287</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="I6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.336053793</v>
       </c>
       <c r="J6" t="n">
-        <v>238559.129250684</v>
+        <v>238524.3913252482</v>
       </c>
       <c r="K6" t="n">
-        <v>196364.117114351</v>
+        <v>196329.379188915</v>
       </c>
       <c r="L6" t="n">
-        <v>284549.6266292791</v>
+        <v>284514.8887038429</v>
       </c>
       <c r="M6" t="n">
-        <v>184214.8130861166</v>
+        <v>184180.0751606808</v>
       </c>
       <c r="N6" t="n">
-        <v>237784.4998472047</v>
+        <v>237749.7619217696</v>
       </c>
       <c r="O6" t="n">
-        <v>287624.0739792284</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="P6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573199</v>
+        <v>863.6234498573216</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426312</v>
+        <v>554.2625532426329</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490084</v>
+        <v>969.2208239490102</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319635759</v>
+        <v>9.912785319637464</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576303</v>
+        <v>338.6177873576297</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646794</v>
+        <v>12.14759651646966</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063772</v>
+        <v>414.9582707063773</v>
       </c>
       <c r="F4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506379</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598428</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646794</v>
+        <v>12.14759651646966</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063774</v>
+        <v>414.9582707063773</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506379</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646794</v>
+        <v>12.14759651646966</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063772</v>
+        <v>414.9582707063773</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506379</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>351.5228849393829</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,7 +27436,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>162.5797212940403</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.9886238604074</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>75.27800118047608</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716283</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>203.6097624411719</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>124.8190532911061</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,13 +27701,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>105.3602022309896</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>95.92735743473241</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="X7" t="n">
-        <v>12.89236036714581</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.7614673945881</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151411</v>
+        <v>76.62727429151386</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>350.851781313369</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433985</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282975</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>118.4431885120421</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>149.9932628558608</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.61659997434</v>
+        <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332438</v>
+        <v>16.89051046332416</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099054</v>
+        <v>21.09786070099028</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>107.2691031313611</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>196.8761692930954</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>20.71178377957293</v>
       </c>
       <c r="U10" t="n">
-        <v>111.2750158629894</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.34173655020652e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.476099325576797e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.094053428751653e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.911715561524034e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.732143662578304e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753042</v>
+        <v>3.471853064753049</v>
       </c>
       <c r="H8" t="n">
-        <v>35.5561151994021</v>
+        <v>35.55611519940217</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788918</v>
+        <v>133.8486152788921</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545838</v>
+        <v>294.6691890545844</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855801</v>
+        <v>441.632729285581</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160162</v>
+        <v>547.8844525160173</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563181</v>
+        <v>609.6270194563192</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765477</v>
+        <v>619.491421976549</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639096</v>
+        <v>584.9681830639107</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278188</v>
+        <v>499.2568105278198</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463504</v>
+        <v>374.9210726463511</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787935</v>
+        <v>218.0887900787939</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306003</v>
+        <v>79.11485171306018</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095645</v>
+        <v>15.19803679095648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802433</v>
+        <v>0.2777482451802439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296877</v>
+        <v>1.85760515629688</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213036</v>
+        <v>17.9405550621304</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566002</v>
+        <v>63.95701963566015</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148729</v>
+        <v>175.5029503148733</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867637</v>
+        <v>299.9624957867642</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564776</v>
+        <v>403.3365932564784</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722393</v>
+        <v>470.6747801722402</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668794</v>
+        <v>483.1321410668804</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510381</v>
+        <v>441.9715215510389</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423396</v>
+        <v>354.7211109423403</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230891</v>
+        <v>237.1216687230895</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111342</v>
+        <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911082</v>
+        <v>34.50420103911089</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442233</v>
+        <v>7.487452362442248</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458472</v>
+        <v>0.1222108655458475</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55735376203779</v>
+        <v>1.557353762037793</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066327</v>
+        <v>13.8462907206633</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291827</v>
+        <v>46.83387495291836</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760717</v>
+        <v>110.1049109760719</v>
       </c>
       <c r="K10" t="n">
-        <v>180.936191625845</v>
+        <v>180.9361916258453</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306002</v>
+        <v>231.5360311306006</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801601</v>
+        <v>244.1222810801605</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762012</v>
+        <v>238.3175988762017</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833051</v>
+        <v>220.1248753833056</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377341</v>
+        <v>188.3548586377344</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284553</v>
+        <v>130.4071409284556</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580824</v>
+        <v>70.02428824580838</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387675</v>
+        <v>27.1404287438768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343282</v>
+        <v>6.654147892343295</v>
       </c>
       <c r="U10" t="n">
-        <v>0.084946568838425</v>
+        <v>0.08494656883842516</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>156.4572543240544</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>210.24053684173</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312103</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>587.1221002143864</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>231.5286848890172</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,16 +33971,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278975</v>
+        <v>113.6232845278981</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405996</v>
+        <v>221.5428782406005</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460289</v>
+        <v>312.1180375460301</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290454</v>
+        <v>379.2807862290465</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799568</v>
+        <v>390.078358379958</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422228</v>
+        <v>354.869971642224</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725493</v>
+        <v>268.0238147725502</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719009</v>
+        <v>152.6153827719016</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661342</v>
+        <v>2.503252264661796</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820625</v>
+        <v>48.66532364820659</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124047</v>
+        <v>162.1210568124052</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766034</v>
+        <v>264.7822134766042</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502209</v>
+        <v>328.5407462502219</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835461</v>
+        <v>351.790428983547</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065936</v>
+        <v>299.3752771065945</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280093</v>
+        <v>220.7467035280101</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706756</v>
+        <v>97.13989463706801</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530962</v>
+        <v>51.92293345530996</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936189</v>
+        <v>96.65135484936235</v>
       </c>
       <c r="M10" t="n">
-        <v>105.196497132555</v>
+        <v>105.1964971325555</v>
       </c>
       <c r="N10" t="n">
-        <v>110.632054410968</v>
+        <v>110.6320544109685</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146233</v>
+        <v>81.66833693146279</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858644</v>
+        <v>50.62685458858681</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>17.90287454418027</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>67.64429239728561</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655342</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867659</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295933</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6559836563372</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>444.525855769942</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060417</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>92.97430510914305</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37619,16 +37619,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
